--- a/data/Philippine Residential Power Rates.xlsx
+++ b/data/Philippine Residential Power Rates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Workshop\Data Analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Workshop\Data Analytics\Philippine Residential Power Rates\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A820F0C-8AD5-4BA0-9C82-FEB49246A3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3221E20-677A-442C-A28D-F11EA7B0CE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
